--- a/Supplementary tables/Table S1.xlsx
+++ b/Supplementary tables/Table S1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxy03\Research\ferr\Draft\FerrDraft11202023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sxy03\Research\ferr\Draft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F47B233-71C6-4758-8F61-D7624C2084FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E557BBAE-131C-44F9-8057-C1369D3EB73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,6 +104,12 @@
     <t>White</t>
   </si>
   <si>
+    <t>68.000 [55.000, 78.000]</t>
+  </si>
+  <si>
+    <t>68.000 [60.000, 75.000]</t>
+  </si>
+  <si>
     <t>46 (19.41)</t>
   </si>
   <si>
@@ -215,6 +221,12 @@
     <t>40 (15.62)</t>
   </si>
   <si>
+    <t>22.027 [12.690, 36.032]</t>
+  </si>
+  <si>
+    <t>21.994 [12.962, 36.953]</t>
+  </si>
+  <si>
     <t>194 (81.86)</t>
   </si>
   <si>
@@ -227,6 +239,12 @@
     <t>54 (21.09)</t>
   </si>
   <si>
+    <t>27.942 (28.766)</t>
+  </si>
+  <si>
+    <t>24.445 (19.844)</t>
+  </si>
+  <si>
     <t>132 (55.70)</t>
   </si>
   <si>
@@ -248,6 +266,12 @@
     <t>27 (10.55)</t>
   </si>
   <si>
+    <t>68.433 (13.555)</t>
+  </si>
+  <si>
+    <t>66.614 (12.004)</t>
+  </si>
+  <si>
     <t>125 (57.60)</t>
   </si>
   <si>
@@ -272,6 +296,12 @@
     <t>89 (33.97)</t>
   </si>
   <si>
+    <t>59.500 [35.000, 86.750]</t>
+  </si>
+  <si>
+    <t>54.000 [31.000, 80.750]</t>
+  </si>
+  <si>
     <t>161 (76.30)</t>
   </si>
   <si>
@@ -284,6 +314,12 @@
     <t>82 (31.54)</t>
   </si>
   <si>
+    <t>57.944 (41.877)</t>
+  </si>
+  <si>
+    <t>51.222 (38.782)</t>
+  </si>
+  <si>
     <t>86 (39.63)</t>
   </si>
   <si>
@@ -308,6 +344,12 @@
     <t>Missing</t>
   </si>
   <si>
+    <t>71.000 [65.250, 77.000]</t>
+  </si>
+  <si>
+    <t>70.000 [65.000, 76.500]</t>
+  </si>
+  <si>
     <t>49 (62.82)</t>
   </si>
   <si>
@@ -318,6 +360,18 @@
   </si>
   <si>
     <t>25 (30.12)</t>
+  </si>
+  <si>
+    <t>81.750 [27.672, 112.650]</t>
+  </si>
+  <si>
+    <t>75.360 [35.165, 112.340]</t>
+  </si>
+  <si>
+    <t>76.835 [25.625, 108.488]</t>
+  </si>
+  <si>
+    <t>68.575 [22.188, 110.330]</t>
   </si>
   <si>
     <t>67 (85.90)</t>
@@ -505,67 +559,13 @@
   <si>
     <t>Age (median [IQR])</t>
   </si>
-  <si>
-    <t>68.43 (13.56)</t>
-  </si>
-  <si>
-    <t>57.94 (41.88)</t>
-  </si>
-  <si>
-    <t>59.50 [35.000, 86.75]</t>
-  </si>
-  <si>
-    <t>66.61 (12.00)</t>
-  </si>
-  <si>
-    <t>54.00 [31.00, 80.75]</t>
-  </si>
-  <si>
-    <t>51.22 (38.78)</t>
-  </si>
-  <si>
-    <t>71.00 [65.25, 77.00]</t>
-  </si>
-  <si>
-    <t>70.00 [65.00, 76.50]</t>
-  </si>
-  <si>
-    <t>75.36 [35.17, 112.34]</t>
-  </si>
-  <si>
-    <t>81.75 [27.67, 112.65]</t>
-  </si>
-  <si>
-    <t>76.84 [25.63, 108.49]</t>
-  </si>
-  <si>
-    <t>68.58 [22.19, 110.33]</t>
-  </si>
-  <si>
-    <t>68.00 [55.00, 78.00]</t>
-  </si>
-  <si>
-    <t>68.00 [60.00, 75.00]</t>
-  </si>
-  <si>
-    <t>22.03 [12.69, 36.03]</t>
-  </si>
-  <si>
-    <t>21.99 [12.96, 36.95]</t>
-  </si>
-  <si>
-    <t>24.45 (19.84)</t>
-  </si>
-  <si>
-    <t>27.94 (28.77)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1141,17 +1141,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1160,13 +1150,23 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="19" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1527,50 +1527,50 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="G24" sqref="G24:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.08984375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="6"/>
-    <col min="6" max="6" width="3.7265625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="28.6328125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.08984375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="24" style="6" customWidth="1"/>
-    <col min="11" max="11" width="8.7265625" style="6"/>
-    <col min="12" max="12" width="5.36328125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="24.26953125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="14.36328125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="22.7265625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="22" style="6" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="6"/>
+    <col min="1" max="1" width="30.08984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="23.1796875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="12"/>
+    <col min="6" max="6" width="3.7265625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="28.6328125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="30.08984375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="24" style="12" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="12"/>
+    <col min="12" max="12" width="5.36328125" style="12" customWidth="1"/>
+    <col min="13" max="13" width="24.26953125" style="12" customWidth="1"/>
+    <col min="14" max="14" width="14.36328125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="22.7265625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="22" style="12" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="G1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -1579,11 +1579,11 @@
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1592,12 +1592,12 @@
         <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="G3" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2">
@@ -1621,310 +1621,310 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="4">
+        <v>78</v>
+      </c>
+      <c r="E4" s="7">
         <v>0.1198</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="K4" s="4">
+        <v>24</v>
+      </c>
+      <c r="K4" s="7">
         <v>0.85309999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>130</v>
+      <c r="A5" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="11">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8">
         <v>0.37890000000000001</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>130</v>
+      <c r="G5" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="11">
+        <v>26</v>
+      </c>
+      <c r="K5" s="8">
         <v>0.55079999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="G6" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>126</v>
+      <c r="A7" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="11">
+        <v>84</v>
+      </c>
+      <c r="E7" s="8">
         <v>0.10390000000000001</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="G8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="G8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="11">
+        <v>32</v>
+      </c>
+      <c r="K8" s="8">
         <v>0.98770000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="4">
+        <v>88</v>
+      </c>
+      <c r="E9" s="7">
         <v>0.13769999999999999</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K9" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
-        <v>128</v>
+      <c r="A10" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="11">
+        <v>90</v>
+      </c>
+      <c r="E10" s="8">
         <v>7.4899999999999994E-2</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="K10" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="G11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="11">
+        <v>38</v>
+      </c>
+      <c r="K11" s="8">
         <v>0.33639999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="4">
+        <v>94</v>
+      </c>
+      <c r="E12" s="7">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="12"/>
+        <v>40</v>
+      </c>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>105</v>
+      <c r="A13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="11">
+        <v>96</v>
+      </c>
+      <c r="E13" s="8">
         <v>0.60109999999999997</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="5"/>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="G14" s="8"/>
+        <v>98</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="12"/>
+        <v>44</v>
+      </c>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>113</v>
+      <c r="A15" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2">
         <v>62.83</v>
@@ -1935,7 +1935,7 @@
       <c r="E15" s="2">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1943,14 +1943,14 @@
         <v>5</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2">
         <v>77.069999999999993</v>
@@ -1961,22 +1961,22 @@
       <c r="E16" s="2">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K16" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="5"/>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C17" s="2">
         <v>85.26</v>
@@ -1987,24 +1987,24 @@
       <c r="E17" s="2">
         <v>0.185</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="12"/>
+        <v>42</v>
+      </c>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
-        <v>114</v>
+      <c r="A18" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2">
         <v>73.239999999999995</v>
@@ -2015,22 +2015,22 @@
       <c r="E18" s="2">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="5"/>
       <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="13"/>
+        <v>49</v>
+      </c>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C19" s="2">
         <v>75.22</v>
@@ -2041,26 +2041,26 @@
       <c r="E19" s="2">
         <v>0.13600000000000001</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="11">
+        <v>51</v>
+      </c>
+      <c r="K19" s="8">
         <v>0.2114</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C20" s="2">
         <v>75.91</v>
@@ -2071,7 +2071,7 @@
       <c r="E20" s="2">
         <v>0.65200000000000002</v>
       </c>
-      <c r="G20" s="8"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="2" t="s">
         <v>19</v>
       </c>
@@ -2079,60 +2079,60 @@
         <v>5</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="12"/>
+        <v>45</v>
+      </c>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G21" s="8"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G22" s="8"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K23" s="13"/>
+        <v>57</v>
+      </c>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>0</v>
@@ -2141,27 +2141,27 @@
         <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24" s="11">
+        <v>45</v>
+      </c>
+      <c r="K24" s="8">
         <v>0.62539999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2">
@@ -2171,287 +2171,287 @@
         <v>83</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="G25" s="8"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K25" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="K25" s="13"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="4">
+        <v>104</v>
+      </c>
+      <c r="E26" s="7">
         <v>0.41449999999999998</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K26" s="13"/>
+        <v>61</v>
+      </c>
+      <c r="K26" s="9"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
-        <v>130</v>
+      <c r="A27" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="11">
+        <v>106</v>
+      </c>
+      <c r="E27" s="8">
         <v>0.43469999999999998</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7">
+        <v>0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="G28" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0.85499999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="G28" s="7" t="s">
-        <v>128</v>
-      </c>
       <c r="H28" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28" s="11">
+        <v>45</v>
+      </c>
+      <c r="K28" s="8">
         <v>0.44009999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
-        <v>126</v>
+      <c r="A29" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E29" s="4">
+        <v>106</v>
+      </c>
+      <c r="E29" s="7">
         <v>0.64749999999999996</v>
       </c>
-      <c r="G29" s="8"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="K29" s="13"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="5"/>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="G30" s="9"/>
+        <v>108</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="G30" s="5"/>
       <c r="H30" s="2" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K30" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" s="4">
+        <v>110</v>
+      </c>
+      <c r="E31" s="7">
         <v>0.48799999999999999</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="K31" s="4">
+        <v>69</v>
+      </c>
+      <c r="K31" s="7">
         <v>0.11550000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
-        <v>128</v>
+      <c r="A32" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="11">
+        <v>114</v>
+      </c>
+      <c r="E32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>105</v>
+      <c r="G32" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K32" s="11">
+        <v>71</v>
+      </c>
+      <c r="K32" s="8">
         <v>0.64280000000000004</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="5"/>
       <c r="B33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" s="13"/>
-      <c r="G33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K33" s="12"/>
+        <v>73</v>
+      </c>
+      <c r="K33" s="13"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="4">
+        <v>112</v>
+      </c>
+      <c r="E34" s="7">
         <v>0.46189999999999998</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="5"/>
       <c r="H34" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K34" s="13"/>
+        <v>76</v>
+      </c>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>99</v>
+      <c r="A35" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="11">
+        <v>108</v>
+      </c>
+      <c r="E35" s="8">
         <v>7.6499999999999999E-2</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>113</v>
+      <c r="G35" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="5">
+        <v>127</v>
+      </c>
+      <c r="I35" s="10">
         <v>61.6</v>
       </c>
       <c r="J35" s="3">
@@ -2462,22 +2462,22 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="9"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="2" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E36" s="13"/>
-      <c r="G36" s="8"/>
+        <v>106</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" s="5">
+        <v>128</v>
+      </c>
+      <c r="I36" s="10">
         <v>67.930000000000007</v>
       </c>
       <c r="J36" s="3">
@@ -2488,26 +2488,26 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>113</v>
+      <c r="A37" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C37" s="3">
         <v>67.87</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="10">
         <v>63.1</v>
       </c>
       <c r="E37" s="3">
         <v>0.375</v>
       </c>
-      <c r="G37" s="9"/>
+      <c r="G37" s="5"/>
       <c r="H37" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="5">
+        <v>129</v>
+      </c>
+      <c r="I37" s="10">
         <v>84.69</v>
       </c>
       <c r="J37" s="3">
@@ -2518,26 +2518,26 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C38" s="3">
         <v>86.79</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="10">
         <v>79.23</v>
       </c>
       <c r="E38" s="3">
         <v>0.27700000000000002</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>114</v>
+      <c r="G38" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="5">
+        <v>127</v>
+      </c>
+      <c r="I38" s="10">
         <v>62.41</v>
       </c>
       <c r="J38" s="3">
@@ -2548,24 +2548,24 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="9"/>
+      <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C39" s="3">
         <v>88.46</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="10">
         <v>88.26</v>
       </c>
       <c r="E39" s="3">
         <v>0.92200000000000004</v>
       </c>
-      <c r="G39" s="8"/>
+      <c r="G39" s="11"/>
       <c r="H39" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I39" s="5">
+        <v>128</v>
+      </c>
+      <c r="I39" s="10">
         <v>72.459999999999994</v>
       </c>
       <c r="J39" s="3">
@@ -2576,26 +2576,26 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>114</v>
+      <c r="A40" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C40" s="3">
         <v>83.34</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="10">
         <v>81.67</v>
       </c>
       <c r="E40" s="3">
         <v>0.97899999999999998</v>
       </c>
-      <c r="G40" s="9"/>
+      <c r="G40" s="5"/>
       <c r="H40" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I40" s="5">
+        <v>129</v>
+      </c>
+      <c r="I40" s="10">
         <v>75.52</v>
       </c>
       <c r="J40" s="3">
@@ -2606,14 +2606,14 @@
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C41" s="3">
         <v>83.34</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="10">
         <v>86.12</v>
       </c>
       <c r="E41" s="3">
@@ -2621,14 +2621,14 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="9"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="2" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C42" s="3">
         <v>88.28</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="10">
         <v>91.37</v>
       </c>
       <c r="E42" s="3">
@@ -2636,30 +2636,46 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>120</v>
+      <c r="A45" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>121</v>
+      <c r="A46" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>106</v>
+      <c r="A47" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="6" t="s">
-        <v>107</v>
+      <c r="B48" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G11:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G8:G10"/>
     <mergeCell ref="K32:K34"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E5:E6"/>
@@ -2674,26 +2690,10 @@
     <mergeCell ref="G28:G30"/>
     <mergeCell ref="G32:G34"/>
     <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G11:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="G35:G37"/>
-    <mergeCell ref="G38:G40"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="E35:E36"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A32:A33"/>
